--- a/drew charts.xlsx
+++ b/drew charts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9957243c41607423/Documents/NSS_Data_Analytics/projects/app-trader-anonymousthreat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lapto\OneDrive\Documents\NSS_Data_Analytics\projects\app-trader-anonymousthreat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ADABC29-BE22-446F-906E-F3361E96EC8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{6ADABC29-BE22-446F-906E-F3361E96EC8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ECC346B7-8B54-4932-B02D-1114AE6FE01B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Query" sheetId="1" r:id="rId1"/>
@@ -20,24 +20,26 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Query!$A$1:$I$201</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Charts!$A$40</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Charts!$A$41:$A$46</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Charts!$C$40</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Charts!$C$41:$C$46</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Charts!$F$24</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Charts!$F$25:$F$30</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Charts!$H$24</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Charts!$H$25:$H$30</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId5"/>
+    <pivotCache cacheId="8" r:id="rId5"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="261">
   <si>
     <t>app_name</t>
   </si>
@@ -757,13 +759,77 @@
   </si>
   <si>
     <t>Break Even Rating</t>
+  </si>
+  <si>
+    <t>I AM RICH PRO PLUS</t>
+  </si>
+  <si>
+    <t>I am Rich!</t>
+  </si>
+  <si>
+    <t>I am rich (Most expensive app)</t>
+  </si>
+  <si>
+    <t>I am Rich Person</t>
+  </si>
+  <si>
+    <t>I am Rich</t>
+  </si>
+  <si>
+    <t>I Am Rich</t>
+  </si>
+  <si>
+    <t>i am rich</t>
+  </si>
+  <si>
+    <t>I Am Rich Pro</t>
+  </si>
+  <si>
+    <t>I'm Rich - Trump Edition</t>
+  </si>
+  <si>
+    <t>I am rich VIP</t>
+  </si>
+  <si>
+    <t>I am rich(premium)</t>
+  </si>
+  <si>
+    <t>I am Rich Premium Plus</t>
+  </si>
+  <si>
+    <t>ðŸ’Ž I'm rich</t>
+  </si>
+  <si>
+    <t>I am Rich Plus</t>
+  </si>
+  <si>
+    <t>I AM RICH</t>
+  </si>
+  <si>
+    <t>I Am Rich Premium</t>
+  </si>
+  <si>
+    <t>I am rich</t>
+  </si>
+  <si>
+    <t>Clout</t>
+  </si>
+  <si>
+    <t>Review Count</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
@@ -1251,7 +1317,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1262,6 +1328,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1308,7 +1376,47 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -6798,7 +6906,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Drew Konig" refreshedDate="44065.409659375" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="200">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Drew Konig" refreshedDate="44065.409659375" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="200" xr:uid="{00000000-000A-0000-FFFF-FFFF12000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I201" sheet="Query"/>
   </cacheSource>
@@ -9662,7 +9770,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0">
@@ -9947,7 +10055,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable4" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
@@ -10625,7 +10733,7 @@
     <dataField name="App Store Reviews" fld="7" subtotal="average" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="3">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -10637,7 +10745,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="6">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -10650,7 +10758,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -10664,7 +10772,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="4">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -10996,7 +11104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K201"/>
   <sheetViews>
@@ -16843,7 +16951,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I201">
+  <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="5">
       <filters>
         <filter val="1.99"/>
@@ -16863,7 +16971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16938,7 +17046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17032,21 +17140,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A40:C46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A40:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:C46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>237</v>
       </c>
@@ -17056,8 +17168,23 @@
       <c r="C40" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E40" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>1</v>
       </c>
@@ -17069,8 +17196,24 @@
         <f>(($B$41/18000)-1)/2</f>
         <v>-0.22222222222222221</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E41" s="8">
+        <v>399.99</v>
+      </c>
+      <c r="F41" t="s">
+        <v>256</v>
+      </c>
+      <c r="G41">
+        <v>3.8</v>
+      </c>
+      <c r="H41">
+        <v>3547</v>
+      </c>
+      <c r="I41" s="5">
+        <f>G41*H41</f>
+        <v>13478.599999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>5</v>
       </c>
@@ -17082,8 +17225,24 @@
         <f>(($B$42/18000)-1)/2</f>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E42" s="8">
+        <v>399.99</v>
+      </c>
+      <c r="F42" t="s">
+        <v>255</v>
+      </c>
+      <c r="G42">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H42">
+        <v>1867</v>
+      </c>
+      <c r="I42" s="5">
+        <f>G42*H42</f>
+        <v>7654.6999999999989</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>10</v>
       </c>
@@ -17095,8 +17254,24 @@
         <f>(($B$43/18000)-1)/2</f>
         <v>2.2777777777777777</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E43" s="8">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>254</v>
+      </c>
+      <c r="G43">
+        <v>3.9</v>
+      </c>
+      <c r="H43">
+        <v>1455</v>
+      </c>
+      <c r="I43" s="5">
+        <f>G43*H43</f>
+        <v>5674.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>15</v>
       </c>
@@ -17108,8 +17283,24 @@
         <f>(($B$44/18000)-1)/2</f>
         <v>3.666666666666667</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E44" s="8">
+        <v>399.99</v>
+      </c>
+      <c r="F44" t="s">
+        <v>253</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="H44">
+        <v>856</v>
+      </c>
+      <c r="I44" s="5">
+        <f>G44*H44</f>
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>20</v>
       </c>
@@ -17121,8 +17312,24 @@
         <f>(($B$45/18000)-1)/2</f>
         <v>5.0555555555555554</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E45" s="8">
+        <v>399.99</v>
+      </c>
+      <c r="F45" t="s">
+        <v>252</v>
+      </c>
+      <c r="G45">
+        <v>3.8</v>
+      </c>
+      <c r="H45">
+        <v>718</v>
+      </c>
+      <c r="I45" s="5">
+        <f>G45*H45</f>
+        <v>2728.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>400</v>
       </c>
@@ -17134,8 +17341,286 @@
         <f>(($B$46/18000)-1)/2</f>
         <v>110.61111111111111</v>
       </c>
+      <c r="E46" s="8">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="F46" t="s">
+        <v>251</v>
+      </c>
+      <c r="G46">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H46">
+        <v>459</v>
+      </c>
+      <c r="I46" s="5">
+        <f>G46*H46</f>
+        <v>2111.3999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E47" s="8">
+        <v>399.99</v>
+      </c>
+      <c r="F47" t="s">
+        <v>250</v>
+      </c>
+      <c r="G47">
+        <v>3.5</v>
+      </c>
+      <c r="H47">
+        <v>472</v>
+      </c>
+      <c r="I47" s="5">
+        <f>G47*H47</f>
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E48" s="8">
+        <v>299.99</v>
+      </c>
+      <c r="F48" t="s">
+        <v>249</v>
+      </c>
+      <c r="G48">
+        <v>3.8</v>
+      </c>
+      <c r="H48">
+        <v>411</v>
+      </c>
+      <c r="I48" s="5">
+        <f>G48*H48</f>
+        <v>1561.8</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E49" s="8">
+        <v>400</v>
+      </c>
+      <c r="F49" t="s">
+        <v>248</v>
+      </c>
+      <c r="G49">
+        <v>3.6</v>
+      </c>
+      <c r="H49">
+        <v>275</v>
+      </c>
+      <c r="I49" s="5">
+        <f>G49*H49</f>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E50" s="8">
+        <v>399.99</v>
+      </c>
+      <c r="F50" t="s">
+        <v>247</v>
+      </c>
+      <c r="G50">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H50">
+        <v>201</v>
+      </c>
+      <c r="I50" s="5">
+        <f>G50*H50</f>
+        <v>884.40000000000009</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E51" s="8">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>246</v>
+      </c>
+      <c r="G51">
+        <v>3.9</v>
+      </c>
+      <c r="H51">
+        <v>213</v>
+      </c>
+      <c r="I51" s="5">
+        <f>G51*H51</f>
+        <v>830.69999999999993</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E52" s="8">
+        <v>389.99</v>
+      </c>
+      <c r="F52" t="s">
+        <v>245</v>
+      </c>
+      <c r="G52">
+        <v>3.6</v>
+      </c>
+      <c r="H52">
+        <v>217</v>
+      </c>
+      <c r="I52" s="5">
+        <f>G52*H52</f>
+        <v>781.2</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E53" s="8">
+        <v>399.99</v>
+      </c>
+      <c r="F53" t="s">
+        <v>244</v>
+      </c>
+      <c r="G53">
+        <v>4.3</v>
+      </c>
+      <c r="H53">
+        <v>180</v>
+      </c>
+      <c r="I53" s="5">
+        <f>G53*H53</f>
+        <v>774</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E54" s="8">
+        <v>37.99</v>
+      </c>
+      <c r="F54" t="s">
+        <v>243</v>
+      </c>
+      <c r="G54">
+        <v>4.2</v>
+      </c>
+      <c r="H54">
+        <v>134</v>
+      </c>
+      <c r="I54" s="5">
+        <f>G54*H54</f>
+        <v>562.80000000000007</v>
+      </c>
+    </row>
+    <row r="55" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E55" s="8">
+        <v>399.99</v>
+      </c>
+      <c r="F55" t="s">
+        <v>242</v>
+      </c>
+      <c r="G55">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H55">
+        <v>129</v>
+      </c>
+      <c r="I55" s="5">
+        <f>G55*H55</f>
+        <v>528.9</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E56" s="8">
+        <v>399.99</v>
+      </c>
+      <c r="F56" t="s">
+        <v>241</v>
+      </c>
+      <c r="G56">
+        <v>3.8</v>
+      </c>
+      <c r="H56">
+        <v>93</v>
+      </c>
+      <c r="I56" s="5">
+        <f>G56*H56</f>
+        <v>353.4</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E57" s="8">
+        <v>399.99</v>
+      </c>
+      <c r="F57" t="s">
+        <v>240</v>
+      </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
+      <c r="H57">
+        <v>36</v>
+      </c>
+      <c r="I57" s="5">
+        <f>G57*H57</f>
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E41:H57">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G57">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThan">
+      <formula>4.3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41:G57">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
+      <formula>4.15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:H57">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41:E57">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:I57">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/drew charts.xlsx
+++ b/drew charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lapto\OneDrive\Documents\NSS_Data_Analytics\projects\app-trader-anonymousthreat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{6ADABC29-BE22-446F-906E-F3361E96EC8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ECC346B7-8B54-4932-B02D-1114AE6FE01B}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{6ADABC29-BE22-446F-906E-F3361E96EC8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3E158658-7066-4092-AE41-66C8116CF0E9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1467,12 +1467,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1499,12 +1496,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1519,21 +1513,143 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="lt2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:numFmt formatCode="#,##0" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1550,242 +1666,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1810,20 +1691,78 @@
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="lt2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:numFmt formatCode="#,##0" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1840,10 +1779,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1887,9 +1823,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1897,7 +1856,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1914,10 +1872,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1940,14 +1895,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
+                        <a:schemeClr val="tx2">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -2017,9 +1971,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2027,7 +2004,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2044,10 +2020,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2070,14 +2043,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
+                        <a:schemeClr val="tx2">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -2140,7 +2112,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
+        <c:gapWidth val="100"/>
         <c:axId val="2092239695"/>
         <c:axId val="2026084351"/>
       </c:barChart>
@@ -2158,12 +2130,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2190,12 +2159,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2214,7 +2180,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -2230,10 +2196,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2261,7 +2224,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -2278,12 +2241,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2310,12 +2270,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2344,10 +2301,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2381,6 +2335,498 @@
           <c:h val="0.15625109361329834"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[drew charts.xlsx]Content!PivotTable3</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Content Rating Breakdown of Top 200</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="brightRoom" dir="t"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="flat">
+            <a:bevelT w="50800" h="101600" prst="angle"/>
+            <a:contourClr>
+              <a:srgbClr val="000000"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Content!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Content!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4 +</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9 +</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12 +</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17 +</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Content!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A89-469B-BC0C-E37D3173529F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2454,623 +2900,7 @@
   <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[drew charts.xlsx]Content!PivotTable3</c:name>
-    <c:fmtId val="2"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Content Rating Breakdown of Top 200</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Content!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Content!$A$4:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4 +</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9 +</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12 +</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17 +</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Content!$B$4:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2A89-469B-BC0C-E37D3173529F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="2025722063"/>
-        <c:axId val="2026083103"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2025722063"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Content Rating</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2026083103"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2026083103"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Apps</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2025722063"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
         <c14:dropZoneData val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -3104,12 +2934,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3117,21 +2944,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:uLnTx/>
-                <a:uFillTx/>
-                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>Break Even Points by App Price</a:t>
             </a:r>
           </a:p>
@@ -3150,12 +2963,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3189,7 +2999,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3237,10 +3047,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3263,14 +3070,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
+                        <a:schemeClr val="tx2">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -3355,7 +3161,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
+        <c:gapWidth val="100"/>
         <c:axId val="2101298831"/>
         <c:axId val="2012576479"/>
         <c:extLst>
@@ -3382,9 +3188,32 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent1">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent1">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
                   <a:ln>
                     <a:noFill/>
                   </a:ln>
@@ -3408,10 +3237,7 @@
                       <a:pPr>
                         <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                           <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
+                            <a:schemeClr val="tx2"/>
                           </a:solidFill>
                           <a:latin typeface="+mn-lt"/>
                           <a:ea typeface="+mn-ea"/>
@@ -3434,14 +3260,13 @@
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
                         <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                          <a:ln w="9525">
                             <a:solidFill>
-                              <a:schemeClr val="tx1">
+                              <a:schemeClr val="tx2">
                                 <a:lumMod val="35000"/>
                                 <a:lumOff val="65000"/>
                               </a:schemeClr>
                             </a:solidFill>
-                            <a:round/>
                           </a:ln>
                           <a:effectLst/>
                         </c:spPr>
@@ -3539,12 +3364,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3571,12 +3393,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3595,7 +3414,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -3611,10 +3430,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3642,7 +3458,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -3659,12 +3475,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3691,12 +3504,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3725,10 +3535,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3767,7 +3574,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -3815,12 +3622,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3847,12 +3651,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3888,15 +3689,76 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B3F1-4216-8425-61FC77509B00}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-B3F1-4216-8425-61FC77509B00}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
@@ -3915,10 +3777,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3941,14 +3800,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
+                        <a:schemeClr val="tx2">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -4000,7 +3858,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
+        <c:gapWidth val="100"/>
         <c:axId val="2101356431"/>
         <c:axId val="89323887"/>
       </c:barChart>
@@ -4018,12 +3876,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4050,12 +3905,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4067,14 +3919,14 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -4090,10 +3942,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4121,7 +3970,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -4138,12 +3987,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4170,12 +4016,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4187,7 +4030,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -4204,10 +4047,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4246,7 +4086,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -4434,7 +4274,475 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="220">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4445,7 +4753,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -4457,17 +4765,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -4491,19 +4788,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -4535,29 +4829,54 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -4572,10 +4891,8 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -4583,19 +4900,22 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -4855,7 +5175,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4871,512 +5191,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5444,33 +5259,27 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="220">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5485,7 +5294,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5493,7 +5302,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5501,17 +5310,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -5520,9 +5326,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -5545,35 +5350,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5582,33 +5387,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="12700">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt2"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5624,21 +5428,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5648,23 +5447,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5673,17 +5471,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -5692,14 +5490,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5711,26 +5508,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5744,17 +5535,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -5763,17 +5553,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -5782,17 +5572,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -5801,27 +5590,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -5829,11 +5615,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -5841,17 +5635,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -5860,12 +5654,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5874,14 +5665,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5890,10 +5681,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -5902,20 +5690,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5924,10 +5711,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -5936,46 +5720,34 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="220">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5990,7 +5762,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5998,7 +5770,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6006,17 +5778,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -6025,9 +5794,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -6050,35 +5818,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6087,33 +5855,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="12700">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt2"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6129,21 +5896,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6153,23 +5915,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6178,17 +5939,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -6197,14 +5958,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6216,26 +5976,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6249,17 +6003,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -6268,17 +6021,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -6287,17 +6040,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -6306,27 +6058,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -6334,11 +6083,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -6346,17 +6103,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -6365,12 +6122,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6379,14 +6133,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6395,10 +6149,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -6407,20 +6158,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6429,10 +6179,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -6441,14 +6188,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -9770,7 +9511,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0">
@@ -10055,7 +9796,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable4" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
@@ -17143,8 +16884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A40:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17209,7 +16950,7 @@
         <v>3547</v>
       </c>
       <c r="I41" s="5">
-        <f>G41*H41</f>
+        <f t="shared" ref="I41:I57" si="0">G41*H41</f>
         <v>13478.599999999999</v>
       </c>
     </row>
@@ -17238,7 +16979,7 @@
         <v>1867</v>
       </c>
       <c r="I42" s="5">
-        <f>G42*H42</f>
+        <f t="shared" si="0"/>
         <v>7654.6999999999989</v>
       </c>
     </row>
@@ -17267,7 +17008,7 @@
         <v>1455</v>
       </c>
       <c r="I43" s="5">
-        <f>G43*H43</f>
+        <f t="shared" si="0"/>
         <v>5674.5</v>
       </c>
     </row>
@@ -17296,7 +17037,7 @@
         <v>856</v>
       </c>
       <c r="I44" s="5">
-        <f>G44*H44</f>
+        <f t="shared" si="0"/>
         <v>3424</v>
       </c>
     </row>
@@ -17325,7 +17066,7 @@
         <v>718</v>
       </c>
       <c r="I45" s="5">
-        <f>G45*H45</f>
+        <f t="shared" si="0"/>
         <v>2728.4</v>
       </c>
     </row>
@@ -17354,7 +17095,7 @@
         <v>459</v>
       </c>
       <c r="I46" s="5">
-        <f>G46*H46</f>
+        <f t="shared" si="0"/>
         <v>2111.3999999999996</v>
       </c>
     </row>
@@ -17372,7 +17113,7 @@
         <v>472</v>
       </c>
       <c r="I47" s="5">
-        <f>G47*H47</f>
+        <f t="shared" si="0"/>
         <v>1652</v>
       </c>
     </row>
@@ -17390,7 +17131,7 @@
         <v>411</v>
       </c>
       <c r="I48" s="5">
-        <f>G48*H48</f>
+        <f t="shared" si="0"/>
         <v>1561.8</v>
       </c>
     </row>
@@ -17408,7 +17149,7 @@
         <v>275</v>
       </c>
       <c r="I49" s="5">
-        <f>G49*H49</f>
+        <f t="shared" si="0"/>
         <v>990</v>
       </c>
     </row>
@@ -17426,7 +17167,7 @@
         <v>201</v>
       </c>
       <c r="I50" s="5">
-        <f>G50*H50</f>
+        <f t="shared" si="0"/>
         <v>884.40000000000009</v>
       </c>
     </row>
@@ -17444,7 +17185,7 @@
         <v>213</v>
       </c>
       <c r="I51" s="5">
-        <f>G51*H51</f>
+        <f t="shared" si="0"/>
         <v>830.69999999999993</v>
       </c>
     </row>
@@ -17462,7 +17203,7 @@
         <v>217</v>
       </c>
       <c r="I52" s="5">
-        <f>G52*H52</f>
+        <f t="shared" si="0"/>
         <v>781.2</v>
       </c>
     </row>
@@ -17480,7 +17221,7 @@
         <v>180</v>
       </c>
       <c r="I53" s="5">
-        <f>G53*H53</f>
+        <f t="shared" si="0"/>
         <v>774</v>
       </c>
     </row>
@@ -17498,7 +17239,7 @@
         <v>134</v>
       </c>
       <c r="I54" s="5">
-        <f>G54*H54</f>
+        <f t="shared" si="0"/>
         <v>562.80000000000007</v>
       </c>
     </row>
@@ -17516,7 +17257,7 @@
         <v>129</v>
       </c>
       <c r="I55" s="5">
-        <f>G55*H55</f>
+        <f t="shared" si="0"/>
         <v>528.9</v>
       </c>
     </row>
@@ -17534,7 +17275,7 @@
         <v>93</v>
       </c>
       <c r="I56" s="5">
-        <f>G56*H56</f>
+        <f t="shared" si="0"/>
         <v>353.4</v>
       </c>
     </row>
@@ -17552,7 +17293,7 @@
         <v>36</v>
       </c>
       <c r="I57" s="5">
-        <f>G57*H57</f>
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
     </row>
